--- a/Desktop/MYSARAH/UPM Temperature Correction Worksheet.xlsx
+++ b/Desktop/MYSARAH/UPM Temperature Correction Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\MYSARAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13D07E3-8D68-4C80-8265-9981A2214215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BDA237-1831-44EA-9131-5D59565AC5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,6 +362,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,18 +422,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2815,8 +2815,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,37 +2849,37 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21">
         <v>150736002</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38">
+      <c r="E4" s="20"/>
+      <c r="F4" s="22">
         <v>46121</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3001,10 +3001,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
@@ -3014,62 +3014,62 @@
       <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="29">
         <v>0.35639999999999999</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="30">
-        <v>22.9</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="34">
+        <v>23.4</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25">
         <f>(C26*D24)+F24</f>
-        <v>23.313649999999999</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
+        <v>23.814899999999998</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3077,11 +3077,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="hilzrYbnv1tc7GF08d14Qi+4O5M7PzjHBQnsdtVxDZn6odzNEnrsriltFWZOaUdRqGM1vXZta6yekYaD6+891w==" saltValue="ymOFKISGSRl3rqHHJZ8LMw==" spinCount="100000" sqref="A1:XFD23" name="Range1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="A24:B25"/>
@@ -3089,6 +3084,11 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="C26:H27"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3137,37 +3137,37 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21">
         <v>111668831</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38">
+      <c r="E4" s="20"/>
+      <c r="F4" s="22">
         <v>45542</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3276,9 +3276,9 @@
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
@@ -3297,22 +3297,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
@@ -3333,11 +3333,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="A23:B24"/>
@@ -3345,6 +3340,11 @@
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="C25:H26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
